--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1000_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1000_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.0003066565871828672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01281697014976459</v>
+        <v>0.01282305326151362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00912137765473393</v>
+        <v>0.009136832727869028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01728815397516985</v>
+        <v>0.01728403651308438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003920668829196775</v>
+        <v>0.003919232836450461</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002817589948210979</v>
+        <v>0.002809332449130271</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005140976607559774</v>
+        <v>0.005136349498860143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002926028042527299</v>
+        <v>0.0002925673194074313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0002069629298651581</v>
+        <v>0.0002069656635945065</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003924058441821372</v>
+        <v>0.0003924150384691939</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008614192506826264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003641878416992725</v>
+        <v>0.003642103333735938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003301163409777467</v>
+        <v>0.003297117444354463</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004002797347517338</v>
+        <v>0.004002667655187359</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003366233694814206</v>
+        <v>0.003366428044031337</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003056630528408125</v>
+        <v>0.003052923634541897</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003691415271350965</v>
+        <v>0.003691363458692379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003809765778730934</v>
+        <v>0.003809993509343984</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003462218518202037</v>
+        <v>0.003458002716440172</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004177783555993724</v>
+        <v>0.004177532928096249</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.001168075837865493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01645884856675732</v>
+        <v>0.01646515659524956</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0124225410645114</v>
+        <v>0.01243395017222349</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02129095132268719</v>
+        <v>0.02128670416827174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007286902524010982</v>
+        <v>0.007285660880481797</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005874220476619105</v>
+        <v>0.005862256083672168</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00883239187891074</v>
+        <v>0.008827712957552521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004102368582983663</v>
+        <v>0.004102560828751415</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003669181448067195</v>
+        <v>0.003664968380034678</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004570189400175862</v>
+        <v>0.004569947966565444</v>
       </c>
     </row>
   </sheetData>
